--- a/code/Pipes_Channels.xlsx
+++ b/code/Pipes_Channels.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Roboter 1</t>
   </si>
   <si>
-    <t xml:space="preserve">r00001</t>
+    <t xml:space="preserve">r-s001</t>
   </si>
   <si>
     <t xml:space="preserve">*Roboter → Server</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Controller 1</t>
   </si>
   <si>
-    <t xml:space="preserve">c00001</t>
+    <t xml:space="preserve">c-r001</t>
   </si>
   <si>
     <t xml:space="preserve">*Controller → Roboter</t>
@@ -52,25 +52,25 @@
     <t xml:space="preserve">Roboter 2</t>
   </si>
   <si>
-    <t xml:space="preserve">r00002</t>
+    <t xml:space="preserve">r-s002</t>
   </si>
   <si>
     <t xml:space="preserve">Controller 2</t>
   </si>
   <si>
-    <t xml:space="preserve">c00002</t>
+    <t xml:space="preserve">c-s002</t>
   </si>
   <si>
     <t xml:space="preserve">Roboter 3</t>
   </si>
   <si>
-    <t xml:space="preserve">r00003</t>
+    <t xml:space="preserve">r-s003</t>
   </si>
   <si>
     <t xml:space="preserve">Controller 3</t>
   </si>
   <si>
-    <t xml:space="preserve">c00003</t>
+    <t xml:space="preserve">c-r003</t>
   </si>
   <si>
     <t xml:space="preserve">*Bandwith &lt; 1 MHz</t>
@@ -88,6 +88,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -153,12 +154,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,9 +190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>270000</xdr:colOff>
+      <xdr:colOff>269640</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -201,7 +206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6676200" y="81000"/>
-          <a:ext cx="7511040" cy="2853360"/>
+          <a:ext cx="7510680" cy="2853000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -330,124 +335,124 @@
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <f aca="false">2400+D2</f>
-        <v>2500</v>
-      </c>
-      <c r="F2" s="0" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <f aca="false">2400+D3</f>
-        <v>2425</v>
-      </c>
-      <c r="F3" s="0" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">2400+D4</f>
         <v>2450</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <f aca="false">2400+D5</f>
-        <v>2475</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false">2400+D6</f>
         <v>2400</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D7" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <f aca="false">2400+D7</f>
-        <v>2487</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
